--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/word_level_predictions_17.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>ambient</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ambient</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>15</v>
-      </c>
-      <c r="E78" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>16</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>17</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>18</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/17/word_level_predictions_17.xlsx
@@ -814,208 +814,208 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>obstacle</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4402,262 +4402,262 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>2</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>14</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>2</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>15</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>2</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>16</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>2</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>17</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>2</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>18</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G120" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
